--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data10.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data10.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2977511360424939</v>
+        <v>0.2977492324746521</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.53442665320792</v>
+        <v>-0.5340826581461042</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17492351780133344</v>
+        <v>0.17495152547428786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14632960828094718</v>
+        <v>0.14644302679172014</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
